--- a/zss.test/src/test/java/org/zkoss/zss/issue/book/773-merge-text-pdf.xlsx
+++ b/zss.test/src/test/java/org/zkoss/zss/issue/book/773-merge-text-pdf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>a2</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>merge text that cross the cell boundary(A1:E1)</t>
+  </si>
+  <si>
+    <t>center</t>
   </si>
 </sst>
 </file>
@@ -63,13 +66,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,6 +401,12 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="105">
       <c r="A5" s="1" t="s">
